--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS1.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS1.xlsx
@@ -19,120 +19,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="65">
-  <si>
-    <t>Signal_Value_83</t>
-  </si>
-  <si>
-    <t>Signal_Value_84</t>
-  </si>
-  <si>
-    <t>Signal_Value_85</t>
-  </si>
-  <si>
-    <t>Signal_Value_86</t>
-  </si>
-  <si>
-    <t>Signal_Value_87</t>
-  </si>
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
-  <si>
-    <t>Signal_Value_89</t>
-  </si>
-  <si>
-    <t>Signal_Value_90</t>
-  </si>
-  <si>
-    <t>Signal_Value_91</t>
-  </si>
-  <si>
-    <t>Signal_Value_92</t>
-  </si>
-  <si>
-    <t>Signal_Value_93</t>
-  </si>
-  <si>
-    <t>Signal_Value_94</t>
-  </si>
-  <si>
-    <t>Signal_Value_95</t>
-  </si>
-  <si>
-    <t>Signal_Value_96</t>
-  </si>
-  <si>
-    <t>Signal_Value_97</t>
-  </si>
-  <si>
-    <t>Signal_Value_98</t>
-  </si>
-  <si>
-    <t>Signal_Value_99</t>
-  </si>
-  <si>
-    <t>Signal_Value_100</t>
-  </si>
-  <si>
-    <t>Signal_Value_101</t>
-  </si>
-  <si>
-    <t>Signal_Value_102</t>
-  </si>
-  <si>
-    <t>Signal_Value_103</t>
-  </si>
-  <si>
-    <t>Signal_Value_104</t>
-  </si>
-  <si>
-    <t>Signal_Value_105</t>
-  </si>
-  <si>
-    <t>Signal_Value_106</t>
-  </si>
-  <si>
-    <t>Signal_Value_107</t>
-  </si>
-  <si>
-    <t>Signal_Value_108</t>
-  </si>
-  <si>
-    <t>Signal_Value_109</t>
-  </si>
-  <si>
-    <t>Signal_Value_110</t>
-  </si>
-  <si>
-    <t>Signal_Value_111</t>
-  </si>
-  <si>
-    <t>Signal_Value_112</t>
-  </si>
-  <si>
-    <t>Signal_Value_113</t>
-  </si>
-  <si>
-    <t>Signal_Value_114</t>
-  </si>
-  <si>
-    <t>Signal_Value_115</t>
-  </si>
-  <si>
-    <t>Signal_Value_116</t>
-  </si>
-  <si>
-    <t>Signal_Value_117</t>
-  </si>
-  <si>
-    <t>Signal_Value_118</t>
-  </si>
-  <si>
-    <t>Signal_Value_119</t>
-  </si>
-  <si>
-    <t>Signal_Value_120</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="97">
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -207,10 +306,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -571,15 +667,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:72">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -695,10 +791,109 @@
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:72">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -707,100 +902,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001548948426769643</v>
+        <v>0.1004289605782734</v>
       </c>
       <c r="E2">
-        <v>0.001301968737049734</v>
+        <v>0.01052433456857862</v>
       </c>
       <c r="F2">
-        <v>0.0005505312875169725</v>
+        <v>0.001653406976183861</v>
       </c>
       <c r="G2">
-        <v>0.002319293691975747</v>
+        <v>0.01100537386732099</v>
       </c>
       <c r="H2">
-        <v>0.004416057630314024</v>
+        <v>0.1504391954789663</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.03959727495571909</v>
       </c>
       <c r="J2">
-        <v>0.01606066608012309</v>
+        <v>0.003161895812343772</v>
       </c>
       <c r="K2">
-        <v>0.09280267557641218</v>
+        <v>0.07564210198660498</v>
       </c>
       <c r="L2">
-        <v>0.0002733599908515578</v>
+        <v>0.09251519347525888</v>
       </c>
       <c r="M2">
-        <v>0.1199316919558049</v>
+        <v>0.1144583929869473</v>
       </c>
       <c r="N2">
-        <v>0.1350120096084624</v>
+        <v>0.00671744573487715</v>
       </c>
       <c r="O2">
-        <v>0.02396192980376768</v>
+        <v>0.002092236707619959</v>
       </c>
       <c r="P2">
-        <v>0.0179059168450343</v>
+        <v>0.01278042343512171</v>
       </c>
       <c r="Q2">
-        <v>0.0862565502355717</v>
+        <v>0.02057348466693669</v>
       </c>
       <c r="R2">
-        <v>0.0722307965753204</v>
+        <v>0.005337017497108574</v>
       </c>
       <c r="S2">
-        <v>0.05342395015040551</v>
+        <v>0.01488597914470273</v>
       </c>
       <c r="T2">
-        <v>0.009468233215276881</v>
+        <v>0.0008166916273305476</v>
       </c>
       <c r="U2">
-        <v>0.0009864222899815703</v>
+        <v>0.0001042145652092379</v>
       </c>
       <c r="V2">
-        <v>0.007198095692320774</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.04289610357642992</v>
+        <v>0.001383775989286378</v>
       </c>
       <c r="X2">
-        <v>0.07852946325066347</v>
+        <v>0.02425408132319204</v>
       </c>
       <c r="Y2">
-        <v>0.07732036462799979</v>
+        <v>0.1516394175901874</v>
       </c>
       <c r="Z2">
-        <v>0.02617914255410757</v>
+        <v>0.01771368150752371</v>
       </c>
       <c r="AA2">
-        <v>0.001376791346441826</v>
+        <v>0.001839368883915137</v>
       </c>
       <c r="AB2">
-        <v>0.01246482037236702</v>
+        <v>0.002077936236581931</v>
       </c>
       <c r="AC2">
-        <v>0.00545914899072838</v>
+        <v>0.009241808272944546</v>
       </c>
       <c r="AD2">
-        <v>0.003798697198066888</v>
+        <v>0.005064422063099433</v>
       </c>
       <c r="AE2">
-        <v>0.00511521065819631</v>
+        <v>0.02956933378169558</v>
       </c>
       <c r="AF2">
-        <v>0.01847387912143503</v>
+        <v>0.06268897488940285</v>
       </c>
       <c r="AG2">
-        <v>0.03823455575257342</v>
+        <v>0.02770919324303774</v>
       </c>
       <c r="AH2">
-        <v>0.03444929358200827</v>
+        <v>0.002285704626968177</v>
       </c>
       <c r="AI2">
-        <v>0.01005343117602335</v>
+        <v>0.00179867752706101</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -814,10 +1009,109 @@
       <c r="AM2">
         <v>0</v>
       </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:72">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -838,105 +1132,204 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.003742722502565167</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001802023071468713</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006396142436853338</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002748190466025782</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0002856388195286931</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.02727667359352778</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.05607822244229353</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.005832242680871656</v>
+        <v>0.02694390131721124</v>
       </c>
       <c r="P3">
-        <v>0.09269735642175307</v>
+        <v>0.01998909367704934</v>
       </c>
       <c r="Q3">
-        <v>0.1101832350598177</v>
+        <v>0.007560917596728603</v>
       </c>
       <c r="R3">
-        <v>0.025547184818626</v>
+        <v>0.004115816056790829</v>
       </c>
       <c r="S3">
-        <v>0.01946521255090346</v>
+        <v>0.006036052210901527</v>
       </c>
       <c r="T3">
-        <v>0.08484557199339125</v>
+        <v>0.003583657207981566</v>
       </c>
       <c r="U3">
-        <v>0.07489238292166812</v>
+        <v>0.0001270773692345108</v>
       </c>
       <c r="V3">
-        <v>0.04925665750153999</v>
+        <v>0.001450141485774049</v>
       </c>
       <c r="W3">
-        <v>0.01153243033626269</v>
+        <v>0.001519651093414512</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>8.67386472048993E-05</v>
       </c>
       <c r="Y3">
-        <v>0.008607854453258144</v>
+        <v>0.00520941059062345</v>
       </c>
       <c r="Z3">
-        <v>0.04381035362598937</v>
+        <v>0.0263126292136008</v>
       </c>
       <c r="AA3">
-        <v>0.06916770339503921</v>
+        <v>0.01208263028641004</v>
       </c>
       <c r="AB3">
-        <v>0.07550635262423387</v>
+        <v>0.02988612618372959</v>
       </c>
       <c r="AC3">
-        <v>0.0327909518592896</v>
+        <v>0.02718032322217202</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.01904824922351361</v>
       </c>
       <c r="AE3">
-        <v>0.006123770184499159</v>
+        <v>0.008518087647903001</v>
       </c>
       <c r="AF3">
-        <v>0.002370611160413985</v>
+        <v>0.01154033501247176</v>
       </c>
       <c r="AG3">
-        <v>0.001399637445101878</v>
+        <v>0.005602725242332312</v>
       </c>
       <c r="AH3">
-        <v>0.007427624382811936</v>
+        <v>0.007224888029293782</v>
       </c>
       <c r="AI3">
-        <v>0.03119942385179304</v>
+        <v>0.001766261053333644</v>
       </c>
       <c r="AJ3">
-        <v>0.06404770138759062</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.06181808522629469</v>
+        <v>0.01390218934114738</v>
       </c>
       <c r="AL3">
-        <v>0.02175310314438055</v>
+        <v>0.005156781534547333</v>
       </c>
       <c r="AM3">
-        <v>0.00301676040652882</v>
+        <v>0.0663093183065834</v>
+      </c>
+      <c r="AN3">
+        <v>0.03069250830168896</v>
+      </c>
+      <c r="AO3">
+        <v>0.05068676731090939</v>
+      </c>
+      <c r="AP3">
+        <v>0.04691409505965052</v>
+      </c>
+      <c r="AQ3">
+        <v>0.2444707837095955</v>
+      </c>
+      <c r="AR3">
+        <v>0.2592865265210867</v>
+      </c>
+      <c r="AS3">
+        <v>0.04630329335580025</v>
+      </c>
+      <c r="AT3">
+        <v>0.01049302419131542</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:72">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -954,108 +1347,207 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.005690907462048436</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.003279717695026834</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02149267925479894</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001070970121252795</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0003504524553393541</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.003459402020759691</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.02646989648822203</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02441196853120921</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.01939492735080093</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1012314874763944</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.06799101007964463</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.002724017028445945</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.04561841252234831</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.08889644967603585</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.09492625019804025</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.06582851941807077</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01683811273549155</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>4.217982395774694E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0312488861847227</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.07456269685153209</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07817702433073354</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.05419619272333409</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01348431432697375</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>6.753826005814881E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0007717554902073611</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0001244966520925674</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.001283637861102012</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01472653393853095</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.04777598376371064</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.06220920433442012</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.03165437494469471</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0.1212208832944275</v>
+      </c>
+      <c r="AP4">
+        <v>0.002392760242408583</v>
+      </c>
+      <c r="AQ4">
+        <v>0.02710423441474761</v>
+      </c>
+      <c r="AR4">
+        <v>0.1041106568079584</v>
+      </c>
+      <c r="AS4">
+        <v>0.1191161891329499</v>
+      </c>
+      <c r="AT4">
+        <v>0.04311058759999842</v>
+      </c>
+      <c r="AU4">
+        <v>0.001648094081462536</v>
+      </c>
+      <c r="AV4">
+        <v>0.03367448107317861</v>
+      </c>
+      <c r="AW4">
+        <v>0.04347010658098913</v>
+      </c>
+      <c r="AX4">
+        <v>0.03640188860589463</v>
+      </c>
+      <c r="AY4">
+        <v>0.002222472347314408</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0.01799928625319644</v>
+      </c>
+      <c r="BB4">
+        <v>0.01931780813052099</v>
+      </c>
+      <c r="BC4">
+        <v>0.004471470698263697</v>
+      </c>
+      <c r="BD4">
+        <v>0.07597256024159824</v>
+      </c>
+      <c r="BE4">
+        <v>0.00177648376616898</v>
+      </c>
+      <c r="BF4">
+        <v>0.005480380879775253</v>
+      </c>
+      <c r="BG4">
+        <v>0.01651137060267913</v>
+      </c>
+      <c r="BH4">
+        <v>0.008635722857839001</v>
+      </c>
+      <c r="BI4">
+        <v>0.01717430895493916</v>
+      </c>
+      <c r="BJ4">
+        <v>0.1112302440533161</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0.02443608897681964</v>
+      </c>
+      <c r="BM4">
+        <v>0.03640188860589463</v>
+      </c>
+      <c r="BN4">
+        <v>0.001186122654237217</v>
+      </c>
+      <c r="BO4">
+        <v>0.01013109014211567</v>
+      </c>
+      <c r="BP4">
+        <v>0.03926559978050882</v>
+      </c>
+      <c r="BQ4">
+        <v>0.0577684113447887</v>
+      </c>
+      <c r="BR4">
+        <v>0.01136005523736725</v>
+      </c>
+      <c r="BS4">
+        <v>0.004047106561379251</v>
+      </c>
+      <c r="BT4">
+        <v>0.002361646077262121</v>
+      </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:72">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1073,79 +1565,79 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001837618459298705</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.005372930313423663</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002028333410772202</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01659354462848226</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0104571829831162</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0006778910701092552</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.05809477854044256</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1094223766870639</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.003748675628861246</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.1234080418160787</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.1127589390234721</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.006999952962879025</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02949971028499627</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.04857470875273288</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.03154204353430641</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03445967710992181</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.01592719087473087</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0005243430496919532</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.008205840272378903</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.03899167489851977</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.06798523986668822</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.06470746495530763</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02086785696773019</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.545484371316465E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001274069813192243</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1154,27 +1646,126 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.008434748422709522</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.03708406055298225</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.05732080449334479</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.05216384510859992</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.03102100067445324</v>
+        <v>0.1879937220083328</v>
       </c>
       <c r="AM5">
+        <v>0.03765435087553572</v>
+      </c>
+      <c r="AN5">
+        <v>0.03446469413564721</v>
+      </c>
+      <c r="AO5">
+        <v>0.000263409829304622</v>
+      </c>
+      <c r="AP5">
+        <v>0.06035823416200797</v>
+      </c>
+      <c r="AQ5">
+        <v>0.1232264917563932</v>
+      </c>
+      <c r="AR5">
+        <v>0.03955255886597959</v>
+      </c>
+      <c r="AS5">
+        <v>0.0006449898174071586</v>
+      </c>
+      <c r="AT5">
+        <v>0.004822315633786321</v>
+      </c>
+      <c r="AU5">
+        <v>0.003080844256520981</v>
+      </c>
+      <c r="AV5">
+        <v>0.007478695175318196</v>
+      </c>
+      <c r="AW5">
+        <v>0.05122573675118888</v>
+      </c>
+      <c r="AX5">
+        <v>0.003908554470185403</v>
+      </c>
+      <c r="AY5">
+        <v>0.00589011816455724</v>
+      </c>
+      <c r="AZ5">
+        <v>0.004168686821143618</v>
+      </c>
+      <c r="BA5">
+        <v>0.01889160504282387</v>
+      </c>
+      <c r="BB5">
+        <v>0.002140490766377077</v>
+      </c>
+      <c r="BC5">
+        <v>0.0008250958497028284</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0.01730637242289259</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0.1132570703043406</v>
+      </c>
+      <c r="BH5">
+        <v>0.003026433669390249</v>
+      </c>
+      <c r="BI5">
+        <v>0.03040816389270063</v>
+      </c>
+      <c r="BJ5">
+        <v>0.0007680736366120904</v>
+      </c>
+      <c r="BK5">
+        <v>0.005180961364135363</v>
+      </c>
+      <c r="BL5">
+        <v>0.02596830273841321</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0.1292423088030063</v>
+      </c>
+      <c r="BO5">
+        <v>0.04458980756693884</v>
+      </c>
+      <c r="BP5">
+        <v>0.00589011816455724</v>
+      </c>
+      <c r="BQ5">
+        <v>0.03777179305480007</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:72">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1195,100 +1786,199 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.008693405910256878</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001880203978186903</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02706049432179806</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02404694098128998</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.003738901721466183</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.09305681000390376</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1456137772484495</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001759327095883403</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1483188064459382</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1375128815153648</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.003016405840244373</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.04660981421931679</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.06809414534397026</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.03287275833156135</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01533114734085969</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.002220558365819488</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0004668125426346026</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.012772357494373</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.03694442198788917</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0420026374690669</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.031684214908125</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.009630839821786709</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>2.125626938438041E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0005238581854035558</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.005133330304910006</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.02412258743175469</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.03334667683578724</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.02647553691779001</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.01191761796347417</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.005131473203310912</v>
+        <v>0.1755279545954221</v>
+      </c>
+      <c r="AN6">
+        <v>0.009547859505680352</v>
+      </c>
+      <c r="AO6">
+        <v>0.02021839782571242</v>
+      </c>
+      <c r="AP6">
+        <v>0.08664465975237418</v>
+      </c>
+      <c r="AQ6">
+        <v>0.1436831318238936</v>
+      </c>
+      <c r="AR6">
+        <v>0.03757749262485077</v>
+      </c>
+      <c r="AS6">
+        <v>0.003935537323398476</v>
+      </c>
+      <c r="AT6">
+        <v>0.008768523755902565</v>
+      </c>
+      <c r="AU6">
+        <v>0.09100000437616798</v>
+      </c>
+      <c r="AV6">
+        <v>0.05195871335862647</v>
+      </c>
+      <c r="AW6">
+        <v>0.003700736474799732</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0.01294527182279096</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0.001927913620780249</v>
+      </c>
+      <c r="BB6">
+        <v>0.02780070114236333</v>
+      </c>
+      <c r="BC6">
+        <v>0.00138218331936589</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0.001356308964866865</v>
+      </c>
+      <c r="BF6">
+        <v>0.001503105033302492</v>
+      </c>
+      <c r="BG6">
+        <v>0.02009282061302022</v>
+      </c>
+      <c r="BH6">
+        <v>0.09038767941437158</v>
+      </c>
+      <c r="BI6">
+        <v>0.001840190470225019</v>
+      </c>
+      <c r="BJ6">
+        <v>0.03240288086775424</v>
+      </c>
+      <c r="BK6">
+        <v>0.002706092172973595</v>
+      </c>
+      <c r="BL6">
+        <v>0.006538632516383576</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0.06299431813311018</v>
+      </c>
+      <c r="BO6">
+        <v>0.07118495812168148</v>
+      </c>
+      <c r="BP6">
+        <v>0.008938800159981332</v>
+      </c>
+      <c r="BQ6">
+        <v>0.01353008084462533</v>
+      </c>
+      <c r="BR6">
+        <v>0.009905051365574862</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1298,15 +1988,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:72">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1422,10 +2112,109 @@
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:72">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1434,588 +2223,1083 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001548948426769643</v>
+        <v>0.1004289605782734</v>
       </c>
       <c r="E2">
-        <v>0.002850917163819377</v>
+        <v>0.110953295146852</v>
       </c>
       <c r="F2">
-        <v>0.00340144845133635</v>
+        <v>0.1126067021230359</v>
       </c>
       <c r="G2">
-        <v>0.005720742143312097</v>
+        <v>0.1236120759903569</v>
       </c>
       <c r="H2">
-        <v>0.01013679977362612</v>
+        <v>0.2740512714693232</v>
       </c>
       <c r="I2">
-        <v>0.01013679977362612</v>
+        <v>0.3136485464250423</v>
       </c>
       <c r="J2">
-        <v>0.02619746585374921</v>
+        <v>0.316810442237386</v>
       </c>
       <c r="K2">
-        <v>0.1190001414301614</v>
+        <v>0.392452544223991</v>
       </c>
       <c r="L2">
-        <v>0.1192735014210129</v>
+        <v>0.4849677376992499</v>
       </c>
       <c r="M2">
-        <v>0.2392051933768178</v>
+        <v>0.5994261306861972</v>
       </c>
       <c r="N2">
-        <v>0.3742172029852802</v>
+        <v>0.6061435764210744</v>
       </c>
       <c r="O2">
-        <v>0.3981791327890478</v>
+        <v>0.6082358131286943</v>
       </c>
       <c r="P2">
-        <v>0.4160850496340821</v>
+        <v>0.6210162365638161</v>
       </c>
       <c r="Q2">
-        <v>0.5023415998696538</v>
+        <v>0.6415897212307528</v>
       </c>
       <c r="R2">
-        <v>0.5745723964449742</v>
+        <v>0.6469267387278613</v>
       </c>
       <c r="S2">
-        <v>0.6279963465953796</v>
+        <v>0.661812717872564</v>
       </c>
       <c r="T2">
-        <v>0.6374645798106565</v>
+        <v>0.6626294094998946</v>
       </c>
       <c r="U2">
-        <v>0.6384510021006381</v>
+        <v>0.6627336240651038</v>
       </c>
       <c r="V2">
-        <v>0.6456490977929589</v>
+        <v>0.6627336240651038</v>
       </c>
       <c r="W2">
-        <v>0.6885452013693888</v>
+        <v>0.6641174000543902</v>
       </c>
       <c r="X2">
-        <v>0.7670746646200522</v>
+        <v>0.6883714813775823</v>
       </c>
       <c r="Y2">
-        <v>0.844395029248052</v>
+        <v>0.8400108989677697</v>
       </c>
       <c r="Z2">
-        <v>0.8705741718021596</v>
+        <v>0.8577245804752934</v>
       </c>
       <c r="AA2">
-        <v>0.8719509631486014</v>
+        <v>0.8595639493592085</v>
       </c>
       <c r="AB2">
-        <v>0.8844157835209685</v>
+        <v>0.8616418855957905</v>
       </c>
       <c r="AC2">
-        <v>0.8898749325116969</v>
+        <v>0.870883693868735</v>
       </c>
       <c r="AD2">
-        <v>0.8936736297097638</v>
+        <v>0.8759481159318344</v>
       </c>
       <c r="AE2">
-        <v>0.8987888403679601</v>
+        <v>0.90551744971353</v>
       </c>
       <c r="AF2">
-        <v>0.9172627194893952</v>
+        <v>0.9682064246029328</v>
       </c>
       <c r="AG2">
-        <v>0.9554972752419686</v>
+        <v>0.9959156178459706</v>
       </c>
       <c r="AH2">
-        <v>0.9899465688239769</v>
+        <v>0.9982013224729388</v>
       </c>
       <c r="AI2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AK2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AM2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AN2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AR2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AS2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AT2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AU2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AV2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AX2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BA2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BD2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BE2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BF2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BG2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BH2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BI2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BK2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BL2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BM2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BN2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BO2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BP2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BR2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BS2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BT2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.02694390131721124</v>
+      </c>
+      <c r="P3">
+        <v>0.04693299499426058</v>
+      </c>
+      <c r="Q3">
+        <v>0.05449391259098919</v>
+      </c>
+      <c r="R3">
+        <v>0.05860972864778002</v>
+      </c>
+      <c r="S3">
+        <v>0.06464578085868154</v>
+      </c>
+      <c r="T3">
+        <v>0.06822943806666311</v>
+      </c>
+      <c r="U3">
+        <v>0.06835651543589762</v>
+      </c>
+      <c r="V3">
+        <v>0.06980665692167166</v>
+      </c>
+      <c r="W3">
+        <v>0.07132630801508617</v>
+      </c>
+      <c r="X3">
+        <v>0.07141304666229108</v>
+      </c>
+      <c r="Y3">
+        <v>0.07662245725291453</v>
+      </c>
+      <c r="Z3">
+        <v>0.1029350864665153</v>
+      </c>
+      <c r="AA3">
+        <v>0.1150177167529254</v>
+      </c>
+      <c r="AB3">
+        <v>0.144903842936655</v>
+      </c>
+      <c r="AC3">
+        <v>0.172084166158827</v>
+      </c>
+      <c r="AD3">
+        <v>0.1911324153823406</v>
+      </c>
+      <c r="AE3">
+        <v>0.1996505030302436</v>
+      </c>
+      <c r="AF3">
+        <v>0.2111908380427154</v>
+      </c>
+      <c r="AG3">
+        <v>0.2167935632850477</v>
+      </c>
+      <c r="AH3">
+        <v>0.2240184513143414</v>
+      </c>
+      <c r="AI3">
+        <v>0.2257847123676751</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2257847123676751</v>
+      </c>
+      <c r="AK3">
+        <v>0.2396869017088225</v>
+      </c>
+      <c r="AL3">
+        <v>0.2448436832433698</v>
+      </c>
+      <c r="AM3">
+        <v>0.3111530015499532</v>
+      </c>
+      <c r="AN3">
+        <v>0.3418455098516421</v>
+      </c>
+      <c r="AO3">
+        <v>0.3925322771625515</v>
+      </c>
+      <c r="AP3">
+        <v>0.4394463722222021</v>
+      </c>
+      <c r="AQ3">
+        <v>0.6839171559317976</v>
+      </c>
+      <c r="AR3">
+        <v>0.9432036824528842</v>
+      </c>
+      <c r="AS3">
+        <v>0.9895069758086845</v>
+      </c>
+      <c r="AT3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AW3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AZ3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BA3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BB3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BC3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BD3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BE3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BG3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BH3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BI3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BJ3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BK3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BL3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BM3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BN3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BO3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BP3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0.1212208832944275</v>
+      </c>
+      <c r="AP4">
+        <v>0.1236136435368361</v>
+      </c>
+      <c r="AQ4">
+        <v>0.1507178779515837</v>
+      </c>
+      <c r="AR4">
+        <v>0.2548285347595421</v>
+      </c>
+      <c r="AS4">
+        <v>0.373944723892492</v>
+      </c>
+      <c r="AT4">
+        <v>0.4170553114924904</v>
+      </c>
+      <c r="AU4">
+        <v>0.418703405573953</v>
+      </c>
+      <c r="AV4">
+        <v>0.4523778866471316</v>
+      </c>
+      <c r="AW4">
+        <v>0.4958479932281207</v>
+      </c>
+      <c r="AX4">
+        <v>0.5322498818340153</v>
+      </c>
+      <c r="AY4">
+        <v>0.5344723541813298</v>
+      </c>
+      <c r="AZ4">
+        <v>0.5344723541813298</v>
+      </c>
+      <c r="BA4">
+        <v>0.5524716404345262</v>
+      </c>
+      <c r="BB4">
+        <v>0.5717894485650472</v>
+      </c>
+      <c r="BC4">
+        <v>0.5762609192633109</v>
+      </c>
+      <c r="BD4">
+        <v>0.6522334795049092</v>
+      </c>
+      <c r="BE4">
+        <v>0.6540099632710782</v>
+      </c>
+      <c r="BF4">
+        <v>0.6594903441508534</v>
+      </c>
+      <c r="BG4">
+        <v>0.6760017147535325</v>
+      </c>
+      <c r="BH4">
+        <v>0.6846374376113715</v>
+      </c>
+      <c r="BI4">
+        <v>0.7018117465663107</v>
+      </c>
+      <c r="BJ4">
+        <v>0.8130419906196269</v>
+      </c>
+      <c r="BK4">
+        <v>0.8130419906196269</v>
+      </c>
+      <c r="BL4">
+        <v>0.8374780795964465</v>
+      </c>
+      <c r="BM4">
+        <v>0.8738799682023412</v>
+      </c>
+      <c r="BN4">
+        <v>0.8750660908565784</v>
+      </c>
+      <c r="BO4">
+        <v>0.885197180998694</v>
+      </c>
+      <c r="BP4">
+        <v>0.9244627807792029</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9822311921239916</v>
+      </c>
+      <c r="BR4">
+        <v>0.9935912473613588</v>
+      </c>
+      <c r="BS4">
+        <v>0.9976383539227381</v>
+      </c>
+      <c r="BT4">
         <v>1</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:39">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.003742722502565167</v>
-      </c>
-      <c r="I3">
-        <v>0.003922924809712038</v>
-      </c>
-      <c r="J3">
-        <v>0.01031906724656538</v>
-      </c>
-      <c r="K3">
-        <v>0.01306725771259116</v>
-      </c>
-      <c r="L3">
-        <v>0.01335289653211985</v>
-      </c>
-      <c r="M3">
-        <v>0.04062957012564763</v>
-      </c>
-      <c r="N3">
-        <v>0.09670779256794115</v>
-      </c>
-      <c r="O3">
-        <v>0.1025400352488128</v>
-      </c>
-      <c r="P3">
-        <v>0.1952373916705659</v>
-      </c>
-      <c r="Q3">
-        <v>0.3054206267303836</v>
-      </c>
-      <c r="R3">
-        <v>0.3309678115490096</v>
-      </c>
-      <c r="S3">
-        <v>0.3504330240999131</v>
-      </c>
-      <c r="T3">
-        <v>0.4352785960933043</v>
-      </c>
-      <c r="U3">
-        <v>0.5101709790149724</v>
-      </c>
-      <c r="V3">
-        <v>0.5594276365165124</v>
-      </c>
-      <c r="W3">
-        <v>0.5709600668527751</v>
-      </c>
-      <c r="X3">
-        <v>0.5709600668527751</v>
-      </c>
-      <c r="Y3">
-        <v>0.5795679213060333</v>
-      </c>
-      <c r="Z3">
-        <v>0.6233782749320227</v>
-      </c>
-      <c r="AA3">
-        <v>0.6925459783270619</v>
-      </c>
-      <c r="AB3">
-        <v>0.7680523309512958</v>
-      </c>
-      <c r="AC3">
-        <v>0.8008432828105854</v>
-      </c>
-      <c r="AD3">
-        <v>0.8008432828105854</v>
-      </c>
-      <c r="AE3">
-        <v>0.8069670529950845</v>
-      </c>
-      <c r="AF3">
-        <v>0.8093376641554986</v>
-      </c>
-      <c r="AG3">
-        <v>0.8107373016006004</v>
-      </c>
-      <c r="AH3">
-        <v>0.8181649259834124</v>
-      </c>
-      <c r="AI3">
-        <v>0.8493643498352055</v>
-      </c>
-      <c r="AJ3">
-        <v>0.9134120512227961</v>
-      </c>
-      <c r="AK3">
-        <v>0.9752301364490908</v>
-      </c>
-      <c r="AL3">
-        <v>0.9969832395934713</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
+    <row r="5" spans="1:72">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0.1879937220083328</v>
+      </c>
+      <c r="AM5">
+        <v>0.2256480728838685</v>
+      </c>
+      <c r="AN5">
+        <v>0.2601127670195157</v>
+      </c>
+      <c r="AO5">
+        <v>0.2603761768488203</v>
+      </c>
+      <c r="AP5">
+        <v>0.3207344110108283</v>
+      </c>
+      <c r="AQ5">
+        <v>0.4439609027672215</v>
+      </c>
+      <c r="AR5">
+        <v>0.4835134616332011</v>
+      </c>
+      <c r="AS5">
+        <v>0.4841584514506083</v>
+      </c>
+      <c r="AT5">
+        <v>0.4889807670843946</v>
+      </c>
+      <c r="AU5">
+        <v>0.4920616113409156</v>
+      </c>
+      <c r="AV5">
+        <v>0.4995403065162338</v>
+      </c>
+      <c r="AW5">
+        <v>0.5507660432674226</v>
+      </c>
+      <c r="AX5">
+        <v>0.5546745977376081</v>
+      </c>
+      <c r="AY5">
+        <v>0.5605647159021653</v>
+      </c>
+      <c r="AZ5">
+        <v>0.5647334027233089</v>
+      </c>
+      <c r="BA5">
+        <v>0.5836250077661327</v>
+      </c>
+      <c r="BB5">
+        <v>0.5857654985325098</v>
+      </c>
+      <c r="BC5">
+        <v>0.5865905943822126</v>
+      </c>
+      <c r="BD5">
+        <v>0.5865905943822126</v>
+      </c>
+      <c r="BE5">
+        <v>0.6038969668051052</v>
+      </c>
+      <c r="BF5">
+        <v>0.6038969668051052</v>
+      </c>
+      <c r="BG5">
+        <v>0.7171540371094458</v>
+      </c>
+      <c r="BH5">
+        <v>0.7201804707788361</v>
+      </c>
+      <c r="BI5">
+        <v>0.7505886346715367</v>
+      </c>
+      <c r="BJ5">
+        <v>0.7513567083081488</v>
+      </c>
+      <c r="BK5">
+        <v>0.7565376696722842</v>
+      </c>
+      <c r="BL5">
+        <v>0.7825059724106974</v>
+      </c>
+      <c r="BM5">
+        <v>0.7825059724106974</v>
+      </c>
+      <c r="BN5">
+        <v>0.9117482812137037</v>
+      </c>
+      <c r="BO5">
+        <v>0.9563380887806425</v>
+      </c>
+      <c r="BP5">
+        <v>0.9622282069451997</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BR5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BS5">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BT5">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.005690907462048436</v>
-      </c>
-      <c r="H4">
-        <v>0.008970625157075269</v>
-      </c>
-      <c r="I4">
-        <v>0.008970625157075269</v>
-      </c>
-      <c r="J4">
-        <v>0.03046330441187421</v>
-      </c>
-      <c r="K4">
-        <v>0.03153427453312701</v>
-      </c>
-      <c r="L4">
-        <v>0.03188472698846636</v>
-      </c>
-      <c r="M4">
-        <v>0.03534412900922605</v>
-      </c>
-      <c r="N4">
-        <v>0.06181402549744808</v>
-      </c>
-      <c r="O4">
-        <v>0.0862259940286573</v>
-      </c>
-      <c r="P4">
-        <v>0.1056209213794582</v>
-      </c>
-      <c r="Q4">
-        <v>0.2068524088558526</v>
-      </c>
-      <c r="R4">
-        <v>0.2748434189354972</v>
-      </c>
-      <c r="S4">
-        <v>0.2775674359639432</v>
-      </c>
-      <c r="T4">
-        <v>0.3231858484862915</v>
-      </c>
-      <c r="U4">
-        <v>0.4120822981623273</v>
-      </c>
-      <c r="V4">
-        <v>0.5070085483603676</v>
-      </c>
-      <c r="W4">
-        <v>0.5728370677784383</v>
-      </c>
-      <c r="X4">
-        <v>0.5896751805139299</v>
-      </c>
-      <c r="Y4">
-        <v>0.5897173603378876</v>
-      </c>
-      <c r="Z4">
-        <v>0.6209662465226102</v>
-      </c>
-      <c r="AA4">
-        <v>0.6955289433741423</v>
-      </c>
-      <c r="AB4">
-        <v>0.7737059677048759</v>
-      </c>
-      <c r="AC4">
-        <v>0.82790216042821</v>
-      </c>
-      <c r="AD4">
-        <v>0.8413864747551837</v>
-      </c>
-      <c r="AE4">
-        <v>0.8414540130152418</v>
-      </c>
-      <c r="AF4">
-        <v>0.8422257685054492</v>
-      </c>
-      <c r="AG4">
-        <v>0.8423502651575417</v>
-      </c>
-      <c r="AH4">
-        <v>0.8436339030186437</v>
-      </c>
-      <c r="AI4">
-        <v>0.8583604369571747</v>
-      </c>
-      <c r="AJ4">
-        <v>0.9061364207208853</v>
-      </c>
-      <c r="AK4">
-        <v>0.9683456250553054</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.001837618459298705</v>
-      </c>
-      <c r="H5">
-        <v>0.007210548772722368</v>
-      </c>
-      <c r="I5">
-        <v>0.009238882183494571</v>
-      </c>
-      <c r="J5">
-        <v>0.02583242681197684</v>
-      </c>
-      <c r="K5">
-        <v>0.03628960979509303</v>
-      </c>
-      <c r="L5">
-        <v>0.03696750086520229</v>
-      </c>
-      <c r="M5">
-        <v>0.09506227940564485</v>
-      </c>
-      <c r="N5">
-        <v>0.2044846560927087</v>
-      </c>
-      <c r="O5">
-        <v>0.20823333172157</v>
-      </c>
-      <c r="P5">
-        <v>0.3316413735376487</v>
-      </c>
-      <c r="Q5">
-        <v>0.4444003125611208</v>
-      </c>
-      <c r="R5">
-        <v>0.4514002655239998</v>
-      </c>
-      <c r="S5">
-        <v>0.4808999758089961</v>
-      </c>
-      <c r="T5">
-        <v>0.529474684561729</v>
-      </c>
-      <c r="U5">
-        <v>0.5610167280960354</v>
-      </c>
-      <c r="V5">
-        <v>0.5954764052059572</v>
-      </c>
-      <c r="W5">
-        <v>0.6114035960806881</v>
-      </c>
-      <c r="X5">
-        <v>0.61192793913038</v>
-      </c>
-      <c r="Y5">
-        <v>0.6201337794027589</v>
-      </c>
-      <c r="Z5">
-        <v>0.6591254543012787</v>
-      </c>
-      <c r="AA5">
-        <v>0.7271106941679669</v>
-      </c>
-      <c r="AB5">
-        <v>0.7918181591232746</v>
-      </c>
-      <c r="AC5">
-        <v>0.8126860160910048</v>
-      </c>
-      <c r="AD5">
-        <v>0.8127014709347179</v>
-      </c>
-      <c r="AE5">
-        <v>0.8139755407479101</v>
-      </c>
-      <c r="AF5">
-        <v>0.8139755407479101</v>
-      </c>
-      <c r="AG5">
-        <v>0.8139755407479101</v>
-      </c>
-      <c r="AH5">
-        <v>0.8224102891706196</v>
-      </c>
-      <c r="AI5">
-        <v>0.8594943497236018</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9168151542169466</v>
-      </c>
-      <c r="AK5">
-        <v>0.9689789993255465</v>
-      </c>
-      <c r="AL5">
+    <row r="6" spans="1:72">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0.1755279545954221</v>
+      </c>
+      <c r="AN6">
+        <v>0.1850758141011025</v>
+      </c>
+      <c r="AO6">
+        <v>0.2052942119268149</v>
+      </c>
+      <c r="AP6">
+        <v>0.2919388716791891</v>
+      </c>
+      <c r="AQ6">
+        <v>0.4356220035030827</v>
+      </c>
+      <c r="AR6">
+        <v>0.4731994961279334</v>
+      </c>
+      <c r="AS6">
+        <v>0.4771350334513319</v>
+      </c>
+      <c r="AT6">
+        <v>0.4859035572072345</v>
+      </c>
+      <c r="AU6">
+        <v>0.5769035615834025</v>
+      </c>
+      <c r="AV6">
+        <v>0.628862274942029</v>
+      </c>
+      <c r="AW6">
+        <v>0.6325630114168287</v>
+      </c>
+      <c r="AX6">
+        <v>0.6325630114168287</v>
+      </c>
+      <c r="AY6">
+        <v>0.6455082832396196</v>
+      </c>
+      <c r="AZ6">
+        <v>0.6455082832396196</v>
+      </c>
+      <c r="BA6">
+        <v>0.6474361968603999</v>
+      </c>
+      <c r="BB6">
+        <v>0.6752368980027632</v>
+      </c>
+      <c r="BC6">
+        <v>0.6766190813221291</v>
+      </c>
+      <c r="BD6">
+        <v>0.6766190813221291</v>
+      </c>
+      <c r="BE6">
+        <v>0.6779753902869959</v>
+      </c>
+      <c r="BF6">
+        <v>0.6794784953202985</v>
+      </c>
+      <c r="BG6">
+        <v>0.6995713159333187</v>
+      </c>
+      <c r="BH6">
+        <v>0.7899589953476902</v>
+      </c>
+      <c r="BI6">
+        <v>0.7917991858179152</v>
+      </c>
+      <c r="BJ6">
+        <v>0.8242020666856694</v>
+      </c>
+      <c r="BK6">
+        <v>0.826908158858643</v>
+      </c>
+      <c r="BL6">
+        <v>0.8334467913750265</v>
+      </c>
+      <c r="BM6">
+        <v>0.8334467913750265</v>
+      </c>
+      <c r="BN6">
+        <v>0.8964411095081367</v>
+      </c>
+      <c r="BO6">
+        <v>0.9676260676298182</v>
+      </c>
+      <c r="BP6">
+        <v>0.9765648677897996</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9900949486344249</v>
+      </c>
+      <c r="BR6">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AM5">
+      <c r="BS6">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0.008693405910256878</v>
-      </c>
-      <c r="I6">
-        <v>0.01057360988844378</v>
-      </c>
-      <c r="J6">
-        <v>0.03763410421024185</v>
-      </c>
-      <c r="K6">
-        <v>0.06168104519153182</v>
-      </c>
-      <c r="L6">
-        <v>0.065419946912998</v>
-      </c>
-      <c r="M6">
-        <v>0.1584767569169018</v>
-      </c>
-      <c r="N6">
-        <v>0.3040905341653513</v>
-      </c>
-      <c r="O6">
-        <v>0.3058498612612346</v>
-      </c>
-      <c r="P6">
-        <v>0.4541686677071728</v>
-      </c>
-      <c r="Q6">
-        <v>0.5916815492225376</v>
-      </c>
-      <c r="R6">
-        <v>0.5946979550627819</v>
-      </c>
-      <c r="S6">
-        <v>0.6413077692820986</v>
-      </c>
-      <c r="T6">
-        <v>0.7094019146260689</v>
-      </c>
-      <c r="U6">
-        <v>0.7422746729576303</v>
-      </c>
-      <c r="V6">
-        <v>0.75760582029849</v>
-      </c>
-      <c r="W6">
-        <v>0.7598263786643095</v>
-      </c>
-      <c r="X6">
-        <v>0.7602931912069441</v>
-      </c>
-      <c r="Y6">
-        <v>0.7730655487013171</v>
-      </c>
-      <c r="Z6">
-        <v>0.8100099706892062</v>
-      </c>
-      <c r="AA6">
-        <v>0.8520126081582731</v>
-      </c>
-      <c r="AB6">
-        <v>0.8836968230663981</v>
-      </c>
-      <c r="AC6">
-        <v>0.8933276628881848</v>
-      </c>
-      <c r="AD6">
-        <v>0.8933489191575692</v>
-      </c>
-      <c r="AE6">
-        <v>0.8933489191575692</v>
-      </c>
-      <c r="AF6">
-        <v>0.8938727773429728</v>
-      </c>
-      <c r="AG6">
-        <v>0.8938727773429728</v>
-      </c>
-      <c r="AH6">
-        <v>0.8990061076478828</v>
-      </c>
-      <c r="AI6">
-        <v>0.9231286950796375</v>
-      </c>
-      <c r="AJ6">
-        <v>0.9564753719154246</v>
-      </c>
-      <c r="AK6">
-        <v>0.9829509088332147</v>
-      </c>
-      <c r="AL6">
-        <v>0.9948685267966888</v>
-      </c>
-      <c r="AM6">
-        <v>0.9999999999999997</v>
+      <c r="BT6">
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2033,72 +3317,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0.01013679977362612</v>
+        <v>0.1004289605782734</v>
       </c>
       <c r="F2">
-        <v>0.5023415998696538</v>
+        <v>0.5994261306861972</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -2107,198 +3391,186 @@
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L2">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>0.01031906724656538</v>
+        <v>0.1029350864665153</v>
       </c>
       <c r="F3">
-        <v>0.5101709790149724</v>
+        <v>0.6839171559317976</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L3">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>0.1212208832944275</v>
+      </c>
+      <c r="F4">
+        <v>0.5322498818340153</v>
+      </c>
+      <c r="G4">
         <v>9</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>0.03046330441187421</v>
-      </c>
-      <c r="F4">
-        <v>0.5070085483603676</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L4">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E5">
-        <v>0.02583242681197684</v>
+        <v>0.1879937220083328</v>
       </c>
       <c r="F5">
-        <v>0.529474684561729</v>
+        <v>0.5507660432674226</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>0.01057360988844378</v>
+        <v>0.1755279545954221</v>
       </c>
       <c r="F6">
-        <v>0.5916815492225376</v>
+        <v>0.5769035615834025</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2307,28 +3579,25 @@
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L6">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2346,122 +3615,119 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.01013679977362612</v>
+        <v>0.1004289605782734</v>
       </c>
       <c r="F2">
-        <v>0.7670746646200522</v>
+        <v>0.8400108989677697</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L2">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>0.01031906724656538</v>
+        <v>0.1029350864665153</v>
       </c>
       <c r="F3">
-        <v>0.7680523309512958</v>
+        <v>0.9432036824528842</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -2470,178 +3736,166 @@
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L3">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>0.03046330441187421</v>
+        <v>0.1212208832944275</v>
       </c>
       <c r="F4">
-        <v>0.7737059677048759</v>
+        <v>0.7018117465663107</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L4">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>0.02583242681197684</v>
+        <v>0.1879937220083328</v>
       </c>
       <c r="F5">
-        <v>0.7271106941679669</v>
+        <v>0.7171540371094458</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>0.01057360988844378</v>
+        <v>0.1755279545954221</v>
       </c>
       <c r="F6">
-        <v>0.7094019146260689</v>
+        <v>0.7899589953476902</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L6">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2659,302 +3913,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2">
-        <v>0.01013679977362612</v>
+        <v>0.1004289605782734</v>
       </c>
       <c r="F2">
-        <v>0.844395029248052</v>
+        <v>0.8400108989677697</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L2">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>0.01031906724656538</v>
+        <v>0.1029350864665153</v>
       </c>
       <c r="F3">
-        <v>0.8008432828105854</v>
+        <v>0.9432036824528842</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L3">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>0.03046330441187421</v>
+        <v>0.1212208832944275</v>
       </c>
       <c r="F4">
-        <v>0.82790216042821</v>
+        <v>0.8130419906196269</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L4">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>0.1879937220083328</v>
+      </c>
+      <c r="F5">
+        <v>0.9117482812137037</v>
+      </c>
+      <c r="G5">
         <v>28</v>
-      </c>
-      <c r="E5">
-        <v>0.02583242681197684</v>
-      </c>
-      <c r="F5">
-        <v>0.8126860160910048</v>
-      </c>
-      <c r="G5">
-        <v>19</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>0.01057360988844378</v>
+        <v>0.1755279545954221</v>
       </c>
       <c r="F6">
-        <v>0.8100099706892062</v>
+        <v>0.8242020666856694</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L6">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2972,302 +4211,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.01013679977362612</v>
+        <v>0.1004289605782734</v>
       </c>
       <c r="F2">
-        <v>0.9172627194893952</v>
+        <v>0.90551744971353</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L2">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>0.01031906724656538</v>
+        <v>0.1029350864665153</v>
       </c>
       <c r="F3">
-        <v>0.9134120512227961</v>
+        <v>0.9432036824528842</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L3">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>0.03046330441187421</v>
+        <v>0.1212208832944275</v>
       </c>
       <c r="F4">
-        <v>0.9061364207208853</v>
+        <v>0.9244627807792029</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L4">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>0.02583242681197684</v>
+        <v>0.1879937220083328</v>
       </c>
       <c r="F5">
-        <v>0.9168151542169466</v>
+        <v>0.9117482812137037</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>0.01057360988844378</v>
+        <v>0.1755279545954221</v>
       </c>
       <c r="F6">
-        <v>0.9231286950796375</v>
+        <v>0.9676260676298182</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="L6">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
